--- a/Work/台数テスト/txrx検証.xlsx
+++ b/Work/台数テスト/txrx検証.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Work\台数テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A26C3E9-B70E-4D7F-88C5-CC3ABFF208FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED694BEB-1D23-4307-B475-9D8EE7C0A56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="675" windowWidth="20340" windowHeight="14970" activeTab="2" xr2:uid="{0A5DDAB1-928A-4821-8171-65D96EFB860D}"/>
+    <workbookView xWindow="14355" yWindow="510" windowWidth="14070" windowHeight="14970" xr2:uid="{0A5DDAB1-928A-4821-8171-65D96EFB860D}"/>
   </bookViews>
   <sheets>
     <sheet name="2台" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="22">
   <si>
     <t>21.000000000000000 22.000000000000000 23.000000000000000</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>41.000000000000000 42.000000000000000 43.000000000000000</t>
+  </si>
+  <si>
+    <t>11.000000000000000 12.000000000000000 13.000000000000000</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -475,7 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3851E651-DA56-49F4-A52B-43A8E10FBCFA}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -544,7 +550,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>67</v>
@@ -582,7 +588,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -597,12 +603,12 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
@@ -617,7 +623,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
@@ -642,7 +648,9 @@
   </sheetPr>
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -738,7 +746,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>67</v>
@@ -780,7 +788,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
@@ -800,7 +808,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
@@ -815,7 +823,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
@@ -835,7 +843,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
@@ -850,7 +858,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.4">
@@ -901,7 +909,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>67</v>
@@ -933,7 +941,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>67</v>
@@ -970,12 +978,12 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -990,7 +998,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -1005,12 +1013,12 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -1025,7 +1033,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
@@ -1040,7 +1048,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
@@ -1060,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8F9BE5-FEAE-4C5F-A14F-06CF47472B48}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1142,7 +1150,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>67</v>
@@ -1199,7 +1207,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>67</v>
@@ -1252,7 +1260,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
@@ -1272,7 +1280,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -1287,7 +1295,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -1302,7 +1310,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -1372,7 +1380,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -1387,7 +1395,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
@@ -1402,7 +1410,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
@@ -1441,7 +1449,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>67</v>
@@ -1464,7 +1472,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>67</v>
@@ -1498,7 +1506,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I55">
         <v>31</v>
@@ -1521,7 +1529,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I56">
         <v>67</v>
@@ -1569,42 +1577,42 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -1614,47 +1622,47 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
@@ -1664,12 +1672,12 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
@@ -1677,34 +1685,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
@@ -1714,31 +1722,16 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B99" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B100" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Work/台数テスト/txrx検証.xlsx
+++ b/Work/台数テスト/txrx検証.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Work\台数テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2D55C8-6989-484D-B6AD-46845B5FF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F416107D-6AD9-4E92-AC9F-EFDB8DEAB189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="2925" windowWidth="16560" windowHeight="12780" xr2:uid="{0A5DDAB1-928A-4821-8171-65D96EFB860D}"/>
+    <workbookView xWindow="11445" yWindow="1050" windowWidth="16560" windowHeight="12780" xr2:uid="{0A5DDAB1-928A-4821-8171-65D96EFB860D}"/>
   </bookViews>
   <sheets>
     <sheet name="d3v4" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>67.000000000000000 50.000000000000000 50.000000000000000</t>
-  </si>
-  <si>
     <t>d1_v2_b2.txrx</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -55,9 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.000000000000000 0.000000000000000 0.000000000000000</t>
-  </si>
-  <si>
     <t>d1_iti.csv</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,6 +111,12 @@
   </si>
   <si>
     <t>project_id 2</t>
+  </si>
+  <si>
+    <t>21.000000000000000 22.000000000000000 23.000000000000000</t>
+  </si>
+  <si>
+    <t>11.000000000000000 12.000000000000000 13.000000000000000</t>
   </si>
 </sst>
 </file>
@@ -494,9 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482B3BA-3974-4472-B7A8-5477D3A1953C}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -510,50 +508,50 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
         <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <v>58</v>
@@ -585,7 +583,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>58</v>
@@ -617,7 +615,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>58</v>
@@ -649,7 +647,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>58</v>
@@ -681,7 +679,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7">
         <v>58</v>
@@ -713,7 +711,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>58</v>
@@ -745,7 +743,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>58</v>
@@ -777,7 +775,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>58</v>
@@ -809,7 +807,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>115</v>
@@ -841,63 +839,63 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -907,53 +905,53 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s">
         <v>6</v>
-      </c>
-      <c r="M24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25">
         <v>11</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I26">
         <v>58</v>
@@ -985,7 +983,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I27">
         <v>58</v>
@@ -1046,7 +1044,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29">
         <v>58</v>
@@ -1078,7 +1076,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>58</v>
@@ -1110,7 +1108,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I31">
         <v>58</v>
@@ -1142,7 +1140,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>58</v>
@@ -1174,7 +1172,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I33">
         <v>58</v>
@@ -1206,7 +1204,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I34">
         <v>115</v>
@@ -1238,58 +1236,58 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1299,53 +1297,53 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s">
         <v>6</v>
-      </c>
-      <c r="M48" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49">
         <v>11</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I50">
         <v>58</v>
@@ -1377,7 +1375,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I51">
         <v>58</v>
@@ -1438,7 +1436,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I53">
         <v>58</v>
@@ -1470,7 +1468,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I54">
         <v>58</v>
@@ -1502,7 +1500,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I55">
         <v>58</v>
@@ -1534,7 +1532,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I56">
         <v>58</v>
@@ -1566,7 +1564,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I57">
         <v>58</v>
@@ -1598,7 +1596,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I58">
         <v>115</v>
@@ -1630,58 +1628,58 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1691,53 +1689,53 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s">
         <v>6</v>
-      </c>
-      <c r="M72" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73">
         <v>11</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
       <c r="J73">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I74">
         <v>58</v>
@@ -1769,7 +1767,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I75">
         <v>58</v>
@@ -1830,7 +1828,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I77">
         <v>58</v>
@@ -1862,7 +1860,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I78">
         <v>58</v>
@@ -1894,7 +1892,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I79">
         <v>58</v>
@@ -1926,7 +1924,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I80">
         <v>58</v>
@@ -1958,7 +1956,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I81">
         <v>58</v>
@@ -1990,7 +1988,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I82">
         <v>115</v>
@@ -2022,62 +2020,62 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.6692913385826772" bottom="0.47" header="0.31496062992125984" footer="0.13"/>
+  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.71" bottom="0.5" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>

--- a/Work/台数テスト/txrx検証.xlsx
+++ b/Work/台数テスト/txrx検証.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Work\台数テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F416107D-6AD9-4E92-AC9F-EFDB8DEAB189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25067166-2D59-4D82-9C4D-A48AB8BA201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="1050" windowWidth="16560" windowHeight="12780" xr2:uid="{0A5DDAB1-928A-4821-8171-65D96EFB860D}"/>
+    <workbookView xWindow="3510" yWindow="120" windowWidth="18810" windowHeight="15000" xr2:uid="{0A5DDAB1-928A-4821-8171-65D96EFB860D}"/>
   </bookViews>
   <sheets>
     <sheet name="d3v4" sheetId="2" r:id="rId1"/>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2482B3BA-3974-4472-B7A8-5477D3A1953C}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2058,6 +2058,7 @@
         <v>12</v>
       </c>
     </row>
+    <row r="92" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="93" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
         <v>11</v>
@@ -2075,7 +2076,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.71" bottom="0.5" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.71" bottom="0.52" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
